--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7967754213.176821</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00399293836784974</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.493925291035898</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9098522808951529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.493925291035898</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>7072483187.244883</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004936762510217482</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.937201587163909</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9298644370638102</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.937201587163909</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4088936762.987743</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003457941389820668</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.116475747362742</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9935128346309822</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.116475747362742</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3774235075.649042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004692230101636161</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.121176488550627</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.794634606484192</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.121176488550627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5750578530.774295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002101973211473747</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.817079624569047</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.811500682837022</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.817079624569047</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8247472922.325723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001275257967139075</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.377960761276441</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9540493859289554</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.377960761276441</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6223659498.898346</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002584610722981657</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.317564650498998</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9486935098718716</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.317564650498998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4656251100.512167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005126606585749579</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.027353518944752</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9408289968918004</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.027353518944752</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4023704574.671937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003547411213677683</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.124716930956926</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.348516595707099</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.06280765749263087</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.348516595707099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4532701598.233858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001463371419024661</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.945548865342201</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7360466240533381</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.945548865342201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8983888192.887465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002079631349492923</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.055127225723255</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9820989010666762</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.055127225723255</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6032141004.838634</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004805138368688787</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4998656275976097</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.968775204036749</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8812794929720922</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.968775204036749</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6913284190.700396</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003234557250795735</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
         <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.368479924269337</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8536295389946219</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.368479924269337</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>4995716456.847823</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004986828755492222</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.89415320726003</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9639225835716053</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.89415320726003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6864654365.58005</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003486937258345708</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.702554658569887</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.891418790219503</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.702554658569887</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5605079010.864333</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00225906334216012</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8993773896302946</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.32820675633898</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.202598002772647</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.32820675633898</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5390530349.838453</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001153448155296449</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.586833143642989</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9897664701515199</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.586833143642989</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3467141801.967929</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002256330962824152</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.006528752459586</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8503892366957254</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.006528752459586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6068780498.758644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001309228026580256</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.900050644936864</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8129149826075794</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.900050644936864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8253779628.423389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005771066290823473</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.166249916885987</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8035616684412309</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.166249916885987</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5512592405.093736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005338916272324403</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.263103653926106</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8896085286816322</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.263103653926106</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5768141211.621741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001684065394578775</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9228779139812792</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.935722753542319</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.122598287447735</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.935722753542319</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7086162475.998026</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003719187430886148</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.069821884602415</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.988305255282223</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.069821884602415</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6351104301.353684</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003963701447402259</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.023199504437328</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9254702519375066</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.023199504437328</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5264827599.222203</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0008818394000803612</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.002948184142182</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7938063893375011</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.002948184142182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5912080304.392132</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002898250963131348</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.195359279589898</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8906078068642407</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.195359279589898</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8893322460.969976</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003497356961886834</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.404417270825757</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8725217053019765</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.404417270825757</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7836400249.35817</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001065193333552786</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.167916991994574</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.010442508520219</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.167916991994574</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7722975685.972401</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003516225955297152</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8989815648671048</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.041452953673669</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11108624506324</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.041452953673669</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7274555290.225616</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003467418221757373</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.4509068053745</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9475503072711793</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.4509068053745</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3182844083.99249</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001148072662423024</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.249947454579656</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9407601083978891</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.249947454579656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7102839679.888556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002811552893433992</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.503058886771783</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8572791393442615</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.503058886771783</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7710123399.692752</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004561600222563311</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.209790143528735</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8062548832191122</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.209790143528735</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5850611819.16322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002612090665956866</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.402898355019629</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9508394805225397</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.402898355019629</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6583234124.627743</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002473458650129109</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.63015795000516</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.000241337352241</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.63015795000516</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6376082496.45819</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003972589559795469</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3899565090538099</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.34465712779809</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7363741053663544</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.34465712779809</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4673843327.289058</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003537814674475282</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.551731526358162</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8982519054800214</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.551731526358162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5443061408.577263</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002822324413125834</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8803707385502141</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.603474159698224</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.10365960086168</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-4.603474159698224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7251275140.164059</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003502944159116152</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.823862113660142</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9733911271079518</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.823862113660142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5428749155.286225</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001174194534487373</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.983848610382448</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.918839573091617</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.983848610382448</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5826190185.274581</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005492916897445972</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.860644979852984</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9862408101326459</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.860644979852984</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5055477284.242391</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003802269441174969</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.082508199975613</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.253932044843853</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.082508199975613</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7510633405.735383</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002007399166789531</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.2478516088125958</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.497769812932138</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.474451484834007</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.497769812932138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4759283483.706839</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00125412212441301</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.916363156498922</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9425408885802968</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.916363156498922</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11003400951.40861</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004888258833148954</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.402736716769242</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7993771730554982</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.402736716769242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9953760479.511854</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003334766477119454</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.880018340395005</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9054325534212977</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.880018340395005</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8163619541.351691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003524655048263705</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.207331701547794</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9821648900851611</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.207331701547794</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4174660364.845855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005657553088752207</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.509731849768405</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8619458144279945</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.509731849768405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6749732639.01004</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003323065054496298</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.135576847433397</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.019479083766687</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.135576847433397</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4359555929.704434</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004969440726101168</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.445383845307719</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9389069264949839</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.445383845307719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7606915688.490324</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001766398838543396</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.566180091309669</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8396117760694115</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.566180091309669</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7248123225.489295</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002140542134598896</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9210089226529904</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.186357423813582</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.156790088654218</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.186357423813582</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4921290987.911256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003606968038638455</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.920440965116589</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7933511119287635</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.920440965116589</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7184578856.666787</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003534862446467725</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.953948124147536</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9243684418009903</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.953948124147536</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4008399250.035697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002162387193881475</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9674310443340717</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.998570422776631</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.217481397331875</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.998570422776631</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6510201491.972239</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004461924572474137</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.366468482895575</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8572791393442615</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.366468482895575</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6182875483.065738</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002231001694457758</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.804466675105139</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.852311693497824</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9611230731663962</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.852311693497824</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7130622811.201385</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00355002004818465</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.133633924647177</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8435967192327661</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.133633924647177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4615686108.952435</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00405955337877113</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8365389334698865</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.51162683568387</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.028632706606198</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.51162683568387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6679223504.817642</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004571305886077511</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.843168848266254</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9231951176941341</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.843168848266254</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4990705205.800796</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003652370788541539</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.214826961377783</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8647251158673117</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.214826961377783</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8273819289.22154</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005412604105366392</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3563013812260284</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.133518794948074</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.6043708592832644</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.133518794948074</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5409521155.512771</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005330321774588483</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.368435227937056</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.909200318313016</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.368435227937056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5552742557.100451</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004379544896315128</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.859567259057486</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.032042261049025</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.859567259057486</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4408085001.506581</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002976862863098593</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.413911207912322</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8760186295359891</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.413911207912322</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6356642325.818215</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005681394091652625</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.722725885182435</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9466111416338137</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.722725885182435</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6576708720.537946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001960740453051512</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.82961798530735</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7611201797355232</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.82961798530735</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5215351519.067785</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001157774640182927</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.2154828151537519</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.706426734456032</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.4464434395944122</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.706426734456032</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6750248927.84914</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003809751324573986</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.879383329031968</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9185168392383308</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.879383329031968</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4546728082.276966</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003667262783046711</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6771900084549618</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.015795819355239</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9043033319427861</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.015795819355239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7071617945.114488</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001537934912877446</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.405885417306187</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.072713573879716</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.405885417306187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7531032909.792577</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001452237930001495</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.044070172720463</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9828343936723229</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.044070172720463</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4921466542.851622</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004013793874876653</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.569706178737254</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8623648786704927</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.569706178737254</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7794754903.987704</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004246568858023768</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.083529739172338</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8048288799563146</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.083529739172338</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7637184192.072714</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002401261232502619</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.466839872483978</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9091290331855352</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.466839872483978</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7351427527.10318</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004462907620425113</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.198917279708617</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.017832922018558</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.198917279708617</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5482828122.891902</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003934013807195525</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.999523058467471</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9320537609834311</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.999523058467471</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5747836531.95232</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001610213480936582</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.332132190230132</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9593753623633571</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.332132190230132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7653104397.782443</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002859086297712965</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.674836700475103</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.955049099248554</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.674836700475103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5721859114.377311</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004178909053203725</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.085481935614503</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.00168514053366</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.085481935614503</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6052719124.452642</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005569869660348338</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.141800351090878</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9501474325867155</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.141800351090878</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8783225565.601902</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002851677227238427</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.661597141828381</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7542239940514901</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.661597141828381</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7506219898.044966</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004365374230704596</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.14456159849552</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9231951176941341</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.14456159849552</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3766310896.944711</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002913974990283349</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.06206917476280138</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.318213269700465</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.3504556918060042</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.318213269700465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6795388160.239419</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002075348272353229</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.43493498512351</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9503912357162785</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.43493498512351</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3497809061.66995</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001326644080421816</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.362694685218508</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9792837768084085</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.362694685218508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6611894180.503778</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004745749712928924</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.566946083013474</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8347426252562564</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.566946083013474</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6623471427.419381</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003760682343829152</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.739078057742918</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9316660433915813</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.739078057742918</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5617286067.550138</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003320356106618699</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.307059698417422</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.4830458915396479</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.307059698417422</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6988400638.804834</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00362495308441539</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.026581513542719</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8581216211375328</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.026581513542719</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3502781506.051365</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00319410250092705</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.451218498455159</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.008000746122349</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.451218498455159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7544558777.079581</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001418592952701735</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.394892982301138</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9023782869943064</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.394892982301138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4724457212.443143</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001432690319343331</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.212056369987843</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.047439252584736</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.212056369987843</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7828242610.543763</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002951187848911457</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.896867472517175</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9143924086432806</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.896867472517175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9727476349.729738</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003153449394802355</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>10</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1702703233359691</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.906695774994771</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.139896345277118</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.906695774994771</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7384743161.721256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004450644166489693</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.10398714224508</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8963831438651454</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.10398714224508</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8930345709.814848</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00379666373828822</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.779554074620583</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8674955129644955</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.779554074620583</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2717135053.627751</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00403655609255108</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9158440390790823</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.426243879331968</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.163184422314624</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.426243879331968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4618531321.767621</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003510682258161658</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.309421219744086</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7865253680367776</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.309421219744086</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5672065382.993184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001530210601223487</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5895300800512259</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.662302206090109</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8701826154179977</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.662302206090109</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7967754213.176821</v>
+        <v>2090950880.24306</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00399293836784974</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>0.0843633100707126</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03839252864709988</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1045475447.809048</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>7072483187.244883</v>
+        <v>2189470505.279742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004936762510217482</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1330304242544828</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04335680444823156</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="J3" t="n">
+        <v>1094735321.8514</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4088936762.987743</v>
+        <v>4328552911.054238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003457941389820668</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1230382662038563</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03423513672641616</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2164276492.781928</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3774235075.649042</v>
+        <v>3327489401.954624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004692230101636161</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0765969276354868</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04914244464884275</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1663744748.97629</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5750578530.774295</v>
+        <v>1842238788.133686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002101973211473747</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.1277466199390229</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0470189095915171</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>921119440.499149</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8247472922.325723</v>
+        <v>2205584112.740969</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001275257967139075</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.08062004662622764</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04334721190142596</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1102792097.551669</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6223659498.898346</v>
+        <v>3986676239.504833</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002584610722981657</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.1766646300463942</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0317311100917611</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1993338277.914759</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4656251100.512167</v>
+        <v>2018794570.550434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005126606585749579</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.1722166636528226</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02871074017915434</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1009397309.08837</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4023704574.671937</v>
+        <v>4119906423.840784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003547411213677683</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1541070881806614</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0405570133531745</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2059953242.883133</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4532701598.233858</v>
+        <v>4156048286.671207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001463371419024661</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1415289105031867</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03147728498330473</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2078024166.758095</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8983888192.887465</v>
+        <v>2285091992.646462</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002079631349492923</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>0.1409130341930545</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03797753063663152</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1142545948.658212</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6032141004.838634</v>
+        <v>5087869151.704201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004805138368688787</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+        <v>0.08669006515899438</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02795078538366997</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2543934575.305965</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6913284190.700396</v>
+        <v>2407409503.692453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003234557250795735</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+        <v>0.1427914523792146</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03118430616777838</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1203704828.984669</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>4995716456.847823</v>
+        <v>1344150223.86781</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004986828755492222</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>0.1016246768320201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04573213739008779</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>672075161.8976377</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6864654365.58005</v>
+        <v>2031710161.330698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003486937258345708</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+        <v>0.09223341945140988</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04760376431991715</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1015855153.117651</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5605079010.864333</v>
+        <v>3391397262.147204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00225906334216012</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1755616267327151</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03573808162078927</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1695698695.523132</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5390530349.838453</v>
+        <v>3618241292.483507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001153448155296449</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+        <v>0.1758453082889113</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03193340271825787</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1809120631.506619</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3467141801.967929</v>
+        <v>1091873496.455981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002256330962824152</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1482392814395054</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0259459822449294</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>545936799.6117525</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6068780498.758644</v>
+        <v>2052302842.060678</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001309228026580256</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1133263284263885</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02871324645797064</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1026151441.612443</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8253779628.423389</v>
+        <v>2328783669.71963</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005771066290823473</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
+        <v>0.09612538565842814</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02789703279790778</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1164391839.145194</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5512592405.093736</v>
+        <v>3663824165.294675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005338916272324403</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1334256475091449</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04474065525250272</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1831912104.217594</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5768141211.621741</v>
+        <v>968094465.5638086</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001684065394578775</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1327292463824978</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04707495873974548</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>484047308.1551176</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7086162475.998026</v>
+        <v>3081727178.630693</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003719187430886148</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
+        <v>0.09485450499426097</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03038660196757544</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1540863618.834941</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6351104301.353684</v>
+        <v>1186871894.847407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003963701447402259</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.1168160285049376</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02484257279860083</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>593435968.2144324</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5264827599.222203</v>
+        <v>1237154249.365858</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008818394000803612</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0804048517110918</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03588971921431847</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>618577154.6029383</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5912080304.392132</v>
+        <v>4395419636.123847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002898250963131348</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.1463036487657222</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02349320485917558</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2197709808.384227</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8893322460.969976</v>
+        <v>3399005207.342577</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003497356961886834</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
+        <v>0.1158189404512907</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03287120794493439</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1699502649.338408</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7836400249.35817</v>
+        <v>4565106770.677349</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001065193333552786</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1055402483858146</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04329318592954914</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2282553362.799046</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7722975685.972401</v>
+        <v>2120024452.803214</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003516225955297152</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.09740151317177448</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03299597447346057</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1060012277.300451</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7274555290.225616</v>
+        <v>1482668472.518705</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003467418221757373</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.08430200271288132</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04627721851097465</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>741334121.0231124</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3182844083.99249</v>
+        <v>1733699345.084095</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001148072662423024</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08819362791864892</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03244763150876526</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>866849789.1010674</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7102839679.888556</v>
+        <v>2845905497.428209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002811552893433992</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
+        <v>0.1272256740980523</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04277748527236948</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1422952757.286814</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7710123399.692752</v>
+        <v>1246537983.203979</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004561600222563311</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
+        <v>0.08495031544591387</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01908461912177294</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>623268988.8299394</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5850611819.16322</v>
+        <v>820889480.463621</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002612090665956866</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
+        <v>0.09187335845242757</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03431054096557205</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>410444797.9116858</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6583234124.627743</v>
+        <v>3006370624.564082</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002473458650129109</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
+        <v>0.1526020958392646</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02337035843067432</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1503185293.447931</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6376082496.45819</v>
+        <v>2254568926.620539</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003972589559795469</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
+        <v>0.0791806434407796</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03132451783117623</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1127284525.41096</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4673843327.289058</v>
+        <v>1842458260.807972</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003537814674475282</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09344967545066361</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02513124199917386</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>921229131.0874254</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5443061408.577263</v>
+        <v>2068877158.51427</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002822324413125834</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
+        <v>0.1578435413585406</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.032140036863383</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1034438563.16536</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7251275140.164059</v>
+        <v>1295944722.147338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003502944159116152</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1430019877651443</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05786171982855123</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>647972378.1767753</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5428749155.286225</v>
+        <v>2538828716.948359</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001174194534487373</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
+        <v>0.1076609021827134</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03720641363872462</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1269414379.809935</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5826190185.274581</v>
+        <v>2926600987.718788</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005492916897445972</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.118345153397304</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04267078252451333</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1463300448.968319</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5055477284.242391</v>
+        <v>2581654911.64805</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003802269441174969</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1594360798742427</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02368771187451451</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1290827496.083892</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7510633405.735383</v>
+        <v>2292334191.979268</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002007399166789531</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
+        <v>0.08812888663202999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02238186745958287</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1146167260.433398</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4759283483.706839</v>
+        <v>1993249334.263181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00125412212441301</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1766869716235942</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0521552611855899</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>996624657.1245708</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11003400951.40861</v>
+        <v>5063577030.935696</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004888258833148954</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+        <v>0.1303645183269915</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04523244344914264</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2531788545.710875</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9953760479.511854</v>
+        <v>4149682275.694307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003334766477119454</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1440657544571697</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04576273341103025</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2074841145.279701</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8163619541.351691</v>
+        <v>4733596344.780855</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003524655048263705</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
+        <v>0.09267030579580646</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03221383421540518</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2366798163.957087</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4174660364.845855</v>
+        <v>1443141791.713297</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005657553088752207</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1937275169085872</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03122848254155285</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>721570936.5550995</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6749732639.01004</v>
+        <v>2835730782.919025</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003323065054496298</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
+        <v>0.1280499479654723</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05014353905307155</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1417865462.80978</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4359555929.704434</v>
+        <v>1543850781.256943</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004969440726101168</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1861358000646192</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03573065342533246</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>771925386.293885</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7606915688.490324</v>
+        <v>5278620034.211692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001766398838543396</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
+        <v>0.1376571555179855</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04622788843773567</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2639309998.132517</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7248123225.489295</v>
+        <v>2615532224.723245</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002140542134598896</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1407891070935298</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02357065161037368</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1307766171.120671</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4921290987.911256</v>
+        <v>3267563787.34166</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003606968038638455</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
+        <v>0.1650067157891807</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04527333458478004</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1633781900.072001</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7184578856.666787</v>
+        <v>3288326559.973835</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003534862446467725</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
+        <v>0.1645485332786938</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02187373888981983</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1644163223.301155</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4008399250.035697</v>
+        <v>1526636659.103523</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002162387193881475</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
+        <v>0.1173700181467298</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05594288981584432</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>763318367.6206089</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6510201491.972239</v>
+        <v>3554554270.824821</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004461924572474137</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1234557742125985</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0223286385809791</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1777277186.179765</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6182875483.065738</v>
+        <v>1296655314.340359</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002231001694457758</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1436349709313269</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0331532966172964</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>648327706.6501143</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7130622811.201385</v>
+        <v>4798616806.361411</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00355002004818465</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
+        <v>0.1153063653661362</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04964359298012743</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2399308340.416806</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4615686108.952435</v>
+        <v>2850174203.615085</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00405955337877113</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.2011047465144794</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02053174243310472</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1425087156.252941</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6679223504.817642</v>
+        <v>2783495400.28115</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004571305886077511</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
+        <v>0.1326299974884121</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02958075783817072</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1391747700.82896</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4990705205.800796</v>
+        <v>1870173444.032092</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003652370788541539</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
+        <v>0.1349731070722072</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04073910389729787</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>935086760.4199097</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8273819289.22154</v>
+        <v>5395122715.206501</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005412604105366392</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.09994036933328206</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04399841384361518</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2697561357.507273</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5409521155.512771</v>
+        <v>3910059390.220212</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005330321774588483</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.191204335051574</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02613493803389629</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1955029724.416235</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5552742557.100451</v>
+        <v>5923211001.886781</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004379544896315128</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1722521116926786</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02471567758536756</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2961605404.572382</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4408085001.506581</v>
+        <v>5602472119.249227</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002976862863098593</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1528432472934846</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03683724092496923</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2801236118.885659</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6356642325.818215</v>
+        <v>2546624499.239618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005681394091652625</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>5</v>
+        <v>0.08679874568004649</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03988256364350998</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1273312306.023804</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>496</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4232749346.422804</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1561421990221073</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0360062007221579</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>462</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6576708720.537946</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.001960740453051512</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2116374682.905221</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5215351519.067785</v>
+        <v>1997365901.705512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001157774640182927</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
+        <v>0.1467050655750463</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04937660040259231</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>998682955.2590982</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6750248927.84914</v>
+        <v>2359931377.657692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003809751324573986</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.09548562394525315</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0353707744378615</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1179965623.947426</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4546728082.276966</v>
+        <v>4003456581.60873</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003667262783046711</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1273314263258391</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02587906494320793</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2001728321.9257</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7071617945.114488</v>
+        <v>2180676942.980772</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001537934912877446</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
+        <v>0.07304932344341442</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04985695226398733</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1090338388.425534</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7531032909.792577</v>
+        <v>3130073126.817375</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001452237930001495</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.09806606071234325</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04324148037669379</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1565036547.277708</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4921466542.851622</v>
+        <v>4010280578.006928</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004013793874876653</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1221992663946178</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02292460284181975</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2005140266.857027</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7794754903.987704</v>
+        <v>2227500258.931145</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004246568858023768</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
+        <v>0.1383804877361096</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02747742974427023</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1113750072.080621</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3992550440.964417</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1239541237973205</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03317550760719661</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>6</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>7637184192.072714</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.002401261232502619</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>6</v>
+      <c r="J76" t="n">
+        <v>1996275204.694168</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7351427527.10318</v>
+        <v>1915503872.256954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004462907620425113</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
+        <v>0.1517992303507349</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02225268636943756</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>957751984.9795846</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3070154383.448302</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1010078287648492</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03832154795264055</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5482828122.891902</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.003934013807195525</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1535077223.812115</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5747836531.95232</v>
+        <v>1638245570.665062</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001610213480936582</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1586335925381231</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0249091915502568</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>819122843.4521309</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5269652661.914008</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08925394499369074</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03035672523654372</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>6</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>7653104397.782443</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.002859086297712965</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>11</v>
+      <c r="J80" t="n">
+        <v>2634826393.34413</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5721859114.377311</v>
+        <v>4565228819.066619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004178909053203725</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.08423352435920256</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03298709872734718</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2282614393.547116</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6052719124.452642</v>
+        <v>3609899071.281567</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005569869660348338</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.2156217407005289</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02873885081328278</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1804949597.008005</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8783225565.601902</v>
+        <v>1561333499.640803</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002851677227238427</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1349934122422521</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04255563968414439</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>780666680.3419749</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7506219898.044966</v>
+        <v>2227174695.7921</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004365374230704596</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>8</v>
+        <v>0.1042809424938601</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04181157553192266</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1113587319.437867</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3766310896.944711</v>
+        <v>2972759914.602976</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002913974990283349</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1595803035342332</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05456494204249687</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1486380014.251843</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6795388160.239419</v>
+        <v>2148505168.199404</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002075348272353229</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1548687851434369</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02128692280666158</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1074252632.147018</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3497809061.66995</v>
+        <v>1496103491.404081</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001326644080421816</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1325585984950913</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0295992335461827</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>748051876.9919436</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6611894180.503778</v>
+        <v>3157838881.377471</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004745749712928924</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7</v>
+        <v>0.1544803739581304</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03003120075625523</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1578919486.53965</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6623471427.419381</v>
+        <v>2550017652.358843</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003760682343829152</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
+        <v>0.1068646958157549</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0277936458536455</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1275008897.070923</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5617286067.550138</v>
+        <v>1819554027.470267</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003320356106618699</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5</v>
+        <v>0.1370700131184669</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03877237409679403</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>909777050.7794831</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6988400638.804834</v>
+        <v>1727041214.794691</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00362495308441539</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
+        <v>0.1894240189469997</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04204937587494386</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>863520615.8421365</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3502781506.051365</v>
+        <v>2573186564.919445</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00319410250092705</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09300896168109712</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04051507940071436</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1286593271.751315</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7544558777.079581</v>
+        <v>3169363435.353321</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001418592952701735</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11</v>
+        <v>0.1046090080353821</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04683241481592207</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1584681771.833108</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4724457212.443143</v>
+        <v>1699069726.14555</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001432690319343331</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
+        <v>0.1023034266263332</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03145896098350242</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>849534822.0048569</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7828242610.543763</v>
+        <v>2721519947.769095</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002951187848911457</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>8</v>
+        <v>0.08980673773506137</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04571864685446062</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1360759993.6666</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9727476349.729738</v>
+        <v>1619231912.008708</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003153449394802355</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
+        <v>0.1064436742605123</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04146134751548136</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>809615983.4241222</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7384743161.721256</v>
+        <v>5070938529.790283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004450644166489693</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
+        <v>0.157743206122604</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02501208129303094</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2535469407.153422</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8930345709.814848</v>
+        <v>3448137761.418844</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00379666373828822</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>11</v>
+        <v>0.1081685803503899</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02267163892098045</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1724068895.60138</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2717135053.627751</v>
+        <v>2640194317.841346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00403655609255108</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1307582699149346</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03520733880938318</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1320097118.541822</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4618531321.767621</v>
+        <v>4749116153.401133</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003510682258161658</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1678970466754568</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02176473015310783</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2374558206.945959</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5672065382.993184</v>
+        <v>3292175634.161526</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001530210601223487</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.1747288762172204</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03911993005067171</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1646087944.532545</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2090950880.24306</v>
+        <v>2329786905.355089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0843633100707126</v>
+        <v>0.1046010520284983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03839252864709988</v>
+        <v>0.0414777844023883</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1045475447.809048</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2189470505.279742</v>
+        <v>1795922184.461272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330304242544828</v>
+        <v>0.1386196787616899</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04335680444823156</v>
+        <v>0.04801419471165847</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1094735321.8514</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4328552911.054238</v>
+        <v>4613627773.774164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230382662038563</v>
+        <v>0.1224912534660288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03423513672641616</v>
+        <v>0.02810644682350973</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2164276492.781928</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3327489401.954624</v>
+        <v>2560769385.733234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0765969276354868</v>
+        <v>0.1062258988472142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04914244464884275</v>
+        <v>0.04487708233760459</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1663744748.97629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1842238788.133686</v>
+        <v>2306643495.670704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1277466199390229</v>
+        <v>0.1367708955871855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0470189095915171</v>
+        <v>0.04564779705228692</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>921119440.499149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2205584112.740969</v>
+        <v>2109345150.972787</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08062004662622764</v>
+        <v>0.08104612848231509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04334721190142596</v>
+        <v>0.04617526245487037</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1102792097.551669</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3986676239.504833</v>
+        <v>3021327442.967694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1766646300463942</v>
+        <v>0.1340903993030923</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0317311100917611</v>
+        <v>0.02361551819211074</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1993338277.914759</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2018794570.550434</v>
+        <v>1680248488.49698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1722166636528226</v>
+        <v>0.1483093341937921</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02871074017915434</v>
+        <v>0.03507804701340349</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1009397309.08837</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4119906423.840784</v>
+        <v>3989213080.270956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1541070881806614</v>
+        <v>0.1652076760712937</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0405570133531745</v>
+        <v>0.03890777340571478</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2059953242.883133</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4156048286.671207</v>
+        <v>3012040687.725369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1415289105031867</v>
+        <v>0.1439733989889042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03147728498330473</v>
+        <v>0.04168254608580158</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2078024166.758095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2285091992.646462</v>
+        <v>2859793297.960288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1409130341930545</v>
+        <v>0.1876954542885425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03797753063663152</v>
+        <v>0.04269253250970302</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1142545948.658212</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5087869151.704201</v>
+        <v>4033337849.252528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08669006515899438</v>
+        <v>0.0772724484420667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02795078538366997</v>
+        <v>0.03138283468334596</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2543934575.305965</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2407409503.692453</v>
+        <v>3096675108.581503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1427914523792146</v>
+        <v>0.1862383255126997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03118430616777838</v>
+        <v>0.02976475822702887</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1203704828.984669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1344150223.86781</v>
+        <v>1735191462.067973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1016246768320201</v>
+        <v>0.08996894183394444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04573213739008779</v>
+        <v>0.03174472026461989</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>672075161.8976377</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2031710161.330698</v>
+        <v>1899579780.799054</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09223341945140988</v>
+        <v>0.08042851615877025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04760376431991715</v>
+        <v>0.04868877392689666</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1015855153.117651</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3391397262.147204</v>
+        <v>3617491091.352001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1755616267327151</v>
+        <v>0.1246659500031508</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03573808162078927</v>
+        <v>0.03288089814789526</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1695698695.523132</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3618241292.483507</v>
+        <v>3110517693.225522</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1758453082889113</v>
+        <v>0.1410130622966064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03193340271825787</v>
+        <v>0.02199463215936667</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1809120631.506619</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1091873496.455981</v>
+        <v>987756824.1385212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1482392814395054</v>
+        <v>0.1608742441562275</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0259459822449294</v>
+        <v>0.02182326307328115</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>545936799.6117525</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2052302842.060678</v>
+        <v>2598725645.431932</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1133263284263885</v>
+        <v>0.1347107596464198</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02871324645797064</v>
+        <v>0.02706704044435019</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1026151441.612443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2328783669.71963</v>
+        <v>2480332612.691645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09612538565842814</v>
+        <v>0.09795595024372833</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02789703279790778</v>
+        <v>0.04300209640265383</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1164391839.145194</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3663824165.294675</v>
+        <v>3192635569.987509</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1334256475091449</v>
+        <v>0.1398273583764121</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04474065525250272</v>
+        <v>0.05648990435270577</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1831912104.217594</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968094465.5638086</v>
+        <v>1437755697.050095</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1327292463824978</v>
+        <v>0.1662003660947126</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04707495873974548</v>
+        <v>0.04013009561576644</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>484047308.1551176</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3081727178.630693</v>
+        <v>4146404669.367431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09485450499426097</v>
+        <v>0.1402130428958524</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03038660196757544</v>
+        <v>0.02667598425812581</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1540863618.834941</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1186871894.847407</v>
+        <v>1050946690.828497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168160285049376</v>
+        <v>0.09892281768130166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02484257279860083</v>
+        <v>0.02365429831692997</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>593435968.2144324</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1237154249.365858</v>
+        <v>884601557.6095418</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0804048517110918</v>
+        <v>0.1130802329404111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03588971921431847</v>
+        <v>0.03118652660722744</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>618577154.6029383</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4395419636.123847</v>
+        <v>4176350078.713709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1463036487657222</v>
+        <v>0.1018908635519961</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02349320485917558</v>
+        <v>0.02482943565082314</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2197709808.384227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3399005207.342577</v>
+        <v>3519237236.333565</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1158189404512907</v>
+        <v>0.1468274796617039</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03287120794493439</v>
+        <v>0.03790414431681987</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1699502649.338408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4565106770.677349</v>
+        <v>3834217377.895068</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1055402483858146</v>
+        <v>0.1247876020772644</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04329318592954914</v>
+        <v>0.03109013751062635</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2282553362.799046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2120024452.803214</v>
+        <v>2384051515.447584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09740151317177448</v>
+        <v>0.1111102331043782</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03299597447346057</v>
+        <v>0.02460562452722383</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1060012277.300451</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1482668472.518705</v>
+        <v>1213585259.851178</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08430200271288132</v>
+        <v>0.09784455642604944</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04627721851097465</v>
+        <v>0.0454478235314718</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>741334121.0231124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1733699345.084095</v>
+        <v>1248531729.749255</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08819362791864892</v>
+        <v>0.08905012543037683</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03244763150876526</v>
+        <v>0.03130281899411427</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>866849789.1010674</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2845905497.428209</v>
+        <v>2263587640.734699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1272256740980523</v>
+        <v>0.1780098577182307</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04277748527236948</v>
+        <v>0.05373265280583397</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1422952757.286814</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1246537983.203979</v>
+        <v>956442156.9945284</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08495031544591387</v>
+        <v>0.1197037628151604</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01908461912177294</v>
+        <v>0.01992279057736637</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>623268988.8299394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>820889480.463621</v>
+        <v>1066559113.587016</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09187335845242757</v>
+        <v>0.07299653029871161</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03431054096557205</v>
+        <v>0.04514735255396155</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>410444797.9116858</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3006370624.564082</v>
+        <v>2422782246.024731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1526020958392646</v>
+        <v>0.1736039584147322</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02337035843067432</v>
+        <v>0.0235816790662456</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1503185293.447931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2254568926.620539</v>
+        <v>2069396536.043667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0791806434407796</v>
+        <v>0.1003401106792086</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03132451783117623</v>
+        <v>0.0410170995826511</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1127284525.41096</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1842458260.807972</v>
+        <v>1653954788.347695</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09344967545066361</v>
+        <v>0.1070150085342685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02513124199917386</v>
+        <v>0.03953129877672211</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>921229131.0874254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2068877158.51427</v>
+        <v>1744676955.184047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1578435413585406</v>
+        <v>0.1340026107819113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.032140036863383</v>
+        <v>0.03121006086939238</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1034438563.16536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1295944722.147338</v>
+        <v>1439147226.13411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1430019877651443</v>
+        <v>0.147653048829764</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05786171982855123</v>
+        <v>0.04243138192582235</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>647972378.1767753</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2538828716.948359</v>
+        <v>1797119029.07742</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1076609021827134</v>
+        <v>0.1100822893287547</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03720641363872462</v>
+        <v>0.03478771603268131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1269414379.809935</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2926600987.718788</v>
+        <v>4018607978.156357</v>
       </c>
       <c r="F42" t="n">
-        <v>0.118345153397304</v>
+        <v>0.09076885959665017</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04267078252451333</v>
+        <v>0.03284067413737338</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1463300448.968319</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2581654911.64805</v>
+        <v>1957362352.13163</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1594360798742427</v>
+        <v>0.1402380389688107</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02368771187451451</v>
+        <v>0.01718465911686617</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1290827496.083892</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2292334191.979268</v>
+        <v>1786322701.182272</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08812888663202999</v>
+        <v>0.08358237099523989</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02238186745958287</v>
+        <v>0.02495777625785353</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1146167260.433398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1993249334.263181</v>
+        <v>1724181874.493629</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1766869716235942</v>
+        <v>0.1752648089812321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0521552611855899</v>
+        <v>0.04603032943092422</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>996624657.1245708</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5063577030.935696</v>
+        <v>4075805821.785469</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1303645183269915</v>
+        <v>0.1170867712950298</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04523244344914264</v>
+        <v>0.04900980522912687</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2531788545.710875</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4149682275.694307</v>
+        <v>3530902448.116749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1440657544571697</v>
+        <v>0.1848819651000641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04576273341103025</v>
+        <v>0.04138168782110063</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2074841145.279701</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4733596344.780855</v>
+        <v>4024829097.330479</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09267030579580646</v>
+        <v>0.08079797889221406</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03221383421540518</v>
+        <v>0.02705554808898944</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2366798163.957087</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1443141791.713297</v>
+        <v>1458081297.308522</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1937275169085872</v>
+        <v>0.1538914980144295</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03122848254155285</v>
+        <v>0.03885870240392571</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>721570936.5550995</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2835730782.919025</v>
+        <v>3677489783.984897</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1280499479654723</v>
+        <v>0.1156069790184794</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05014353905307155</v>
+        <v>0.03863517630162858</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1417865462.80978</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1543850781.256943</v>
+        <v>1139061343.297056</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1861358000646192</v>
+        <v>0.1389713259687483</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03573065342533246</v>
+        <v>0.04656475905416382</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>771925386.293885</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5278620034.211692</v>
+        <v>4075995390.272896</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1376571555179855</v>
+        <v>0.1070632414480315</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04622788843773567</v>
+        <v>0.0547927292460778</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2639309998.132517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2615532224.723245</v>
+        <v>2368646299.87683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1407891070935298</v>
+        <v>0.1535290013929597</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02357065161037368</v>
+        <v>0.02197229632287926</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1307766171.120671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3267563787.34166</v>
+        <v>3123796196.022979</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1650067157891807</v>
+        <v>0.1671017230115051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04527333458478004</v>
+        <v>0.05292830948998835</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1633781900.072001</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3288326559.973835</v>
+        <v>3659767116.117038</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1645485332786938</v>
+        <v>0.1557051593205844</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02187373888981983</v>
+        <v>0.02272723486281809</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1644163223.301155</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1526636659.103523</v>
+        <v>1457372463.748252</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1173700181467298</v>
+        <v>0.1447661520059396</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05594288981584432</v>
+        <v>0.05215790207510271</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>763318367.6206089</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3554554270.824821</v>
+        <v>4322681264.630692</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1234557742125985</v>
+        <v>0.1559190921310016</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0223286385809791</v>
+        <v>0.0241032300645062</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1777277186.179765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1296655314.340359</v>
+        <v>1309221766.854706</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1436349709313269</v>
+        <v>0.132674472934222</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0331532966172964</v>
+        <v>0.02800222259700576</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>648327706.6501143</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4798616806.361411</v>
+        <v>4255705555.251137</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1153063653661362</v>
+        <v>0.1249498028899801</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04964359298012743</v>
+        <v>0.04730442148197392</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2399308340.416806</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2850174203.615085</v>
+        <v>3512040396.676556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2011047465144794</v>
+        <v>0.1982131522721503</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02053174243310472</v>
+        <v>0.0286767059893044</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1425087156.252941</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2783495400.28115</v>
+        <v>2861870607.04845</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1326299974884121</v>
+        <v>0.1129496761567423</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02958075783817072</v>
+        <v>0.02617820545601458</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1391747700.82896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1870173444.032092</v>
+        <v>2097965420.237547</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1349731070722072</v>
+        <v>0.1603534020168542</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04073910389729787</v>
+        <v>0.03263927695970135</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>935086760.4199097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5395122715.206501</v>
+        <v>3709274610.124949</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09994036933328206</v>
+        <v>0.07815341491921929</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04399841384361518</v>
+        <v>0.04027767533892634</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2697561357.507273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3910059390.220212</v>
+        <v>4629733925.687527</v>
       </c>
       <c r="F64" t="n">
-        <v>0.191204335051574</v>
+        <v>0.1416064472668599</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02613493803389629</v>
+        <v>0.02197693243933415</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1955029724.416235</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5923211001.886781</v>
+        <v>3975272186.324164</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1722521116926786</v>
+        <v>0.1139129034829471</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02471567758536756</v>
+        <v>0.02431066112534265</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2961605404.572382</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5602472119.249227</v>
+        <v>3923063194.107023</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1528432472934846</v>
+        <v>0.1524585427877475</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03683724092496923</v>
+        <v>0.0444074291652444</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2801236118.885659</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2546624499.239618</v>
+        <v>2541058838.740693</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08679874568004649</v>
+        <v>0.0753438479871435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03988256364350998</v>
+        <v>0.0320975752952836</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1273312306.023804</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4232749346.422804</v>
+        <v>4825943661.309402</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1561421990221073</v>
+        <v>0.1528184003650633</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0360062007221579</v>
+        <v>0.03287103428840003</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2116374682.905221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1997365901.705512</v>
+        <v>2258963427.345607</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1467050655750463</v>
+        <v>0.1661100891139817</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04937660040259231</v>
+        <v>0.04121954095950965</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>998682955.2590982</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2359931377.657692</v>
+        <v>3459431844.860303</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09548562394525315</v>
+        <v>0.1031658929593941</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0353707744378615</v>
+        <v>0.03037432437123518</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1179965623.947426</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4003456581.60873</v>
+        <v>4419031292.250482</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1273314263258391</v>
+        <v>0.1309662198573035</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02587906494320793</v>
+        <v>0.02979430536381451</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2001728321.9257</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2180676942.980772</v>
+        <v>2047495309.570165</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07304932344341442</v>
+        <v>0.08166146650721144</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04985695226398733</v>
+        <v>0.04019155208077401</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1090338388.425534</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3130073126.817375</v>
+        <v>2351587271.117476</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09806606071234325</v>
+        <v>0.09778259966591654</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04324148037669379</v>
+        <v>0.0437979969805506</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1565036547.277708</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4010280578.006928</v>
+        <v>3172614216.216378</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1221992663946178</v>
+        <v>0.1276862128214482</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02292460284181975</v>
+        <v>0.02833074410547954</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2005140266.857027</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2227500258.931145</v>
+        <v>2398970322.222675</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1383804877361096</v>
+        <v>0.1214034333564261</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02747742974427023</v>
+        <v>0.02655917080379693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1113750072.080621</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3992550440.964417</v>
+        <v>4625659353.317475</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1239541237973205</v>
+        <v>0.09230331300269561</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03317550760719661</v>
+        <v>0.02663528012153034</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1996275204.694168</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1915503872.256954</v>
+        <v>1559725475.017128</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1517992303507349</v>
+        <v>0.137417128651327</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02225268636943756</v>
+        <v>0.02410520777242874</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>957751984.9795846</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3070154383.448302</v>
+        <v>4376649968.793774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1010078287648492</v>
+        <v>0.09841144782425514</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03832154795264055</v>
+        <v>0.05138512755838479</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1535077223.812115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1638245570.665062</v>
+        <v>1416202250.052598</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1586335925381231</v>
+        <v>0.1619467516093667</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0249091915502568</v>
+        <v>0.03079589576462448</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>819122843.4521309</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5269652661.914008</v>
+        <v>4136835183.74816</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08925394499369074</v>
+        <v>0.07408249870126955</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03035672523654372</v>
+        <v>0.02690365329426659</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2634826393.34413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4565228819.066619</v>
+        <v>3754558282.82956</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08423352435920256</v>
+        <v>0.09005423401012662</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03298709872734718</v>
+        <v>0.02516456329430081</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2282614393.547116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3609899071.281567</v>
+        <v>5089956285.560956</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2156217407005289</v>
+        <v>0.1403864756059453</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02873885081328278</v>
+        <v>0.0265160608296749</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1804949597.008005</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1561333499.640803</v>
+        <v>2416440403.088939</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1349934122422521</v>
+        <v>0.1484156097400284</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04255563968414439</v>
+        <v>0.0323181105696228</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>780666680.3419749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2227174695.7921</v>
+        <v>1828259881.487985</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1042809424938601</v>
+        <v>0.1206365263486383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04181157553192266</v>
+        <v>0.04289043216307218</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1113587319.437867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2972759914.602976</v>
+        <v>3500709106.272331</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1595803035342332</v>
+        <v>0.114501694557997</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05456494204249687</v>
+        <v>0.0403367632345519</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1486380014.251843</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2148505168.199404</v>
+        <v>1708985210.300556</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1548687851434369</v>
+        <v>0.1424596184194199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02128692280666158</v>
+        <v>0.0258292028233398</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1074252632.147018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1496103491.404081</v>
+        <v>914165281.0314517</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1325585984950913</v>
+        <v>0.1538169124180233</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0295992335461827</v>
+        <v>0.04171789956017451</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>748051876.9919436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3157838881.377471</v>
+        <v>3161659338.69828</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1544803739581304</v>
+        <v>0.1227531181766333</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03003120075625523</v>
+        <v>0.03990257433899205</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1578919486.53965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2550017652.358843</v>
+        <v>2763228886.353945</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1068646958157549</v>
+        <v>0.09784859714076445</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0277936458536455</v>
+        <v>0.03829595391338268</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1275008897.070923</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1819554027.470267</v>
+        <v>1732452552.638317</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1370700131184669</v>
+        <v>0.09386888509442956</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03877237409679403</v>
+        <v>0.03652954740157449</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>909777050.7794831</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1727041214.794691</v>
+        <v>2084389271.770476</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1894240189469997</v>
+        <v>0.121316526658778</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04204937587494386</v>
+        <v>0.0529596500218518</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>863520615.8421365</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2573186564.919445</v>
+        <v>2945318424.669798</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09300896168109712</v>
+        <v>0.06992454070026179</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04051507940071436</v>
+        <v>0.034677484211226</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1286593271.751315</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3169363435.353321</v>
+        <v>3390819251.785903</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1046090080353821</v>
+        <v>0.1196459743519755</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04683241481592207</v>
+        <v>0.04145768031817669</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1584681771.833108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1699069726.14555</v>
+        <v>1535860998.719965</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1023034266263332</v>
+        <v>0.1343163020134197</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03145896098350242</v>
+        <v>0.04256604900940726</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>849534822.0048569</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2721519947.769095</v>
+        <v>2711736511.371414</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08980673773506137</v>
+        <v>0.08917847817895157</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04571864685446062</v>
+        <v>0.04481916691533275</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1360759993.6666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1619231912.008708</v>
+        <v>1701412638.317687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1064436742605123</v>
+        <v>0.1207831192193638</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04146134751548136</v>
+        <v>0.04562584889729555</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>809615983.4241222</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5070938529.790283</v>
+        <v>3795760846.508119</v>
       </c>
       <c r="F97" t="n">
-        <v>0.157743206122604</v>
+        <v>0.1683240750298781</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02501208129303094</v>
+        <v>0.02546412291792062</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2535469407.153422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3448137761.418844</v>
+        <v>3264081543.906341</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1081685803503899</v>
+        <v>0.126261697017964</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02267163892098045</v>
+        <v>0.02060919419979129</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1724068895.60138</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2640194317.841346</v>
+        <v>3171726478.48646</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1307582699149346</v>
+        <v>0.11072160726255</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03520733880938318</v>
+        <v>0.02729309449642726</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1320097118.541822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4749116153.401133</v>
+        <v>3390334541.876828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1678970466754568</v>
+        <v>0.1194725338930375</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02176473015310783</v>
+        <v>0.02137633869362301</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2374558206.945959</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3292175634.161526</v>
+        <v>2828525879.048937</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1747288762172204</v>
+        <v>0.1925513489910518</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03911993005067171</v>
+        <v>0.04843500176234133</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1646087944.532545</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329786905.355089</v>
+        <v>2285079495.321163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046010520284983</v>
+        <v>0.1073624869549358</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0414777844023883</v>
+        <v>0.0387448591147337</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1795922184.461272</v>
+        <v>2135975352.592317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1386196787616899</v>
+        <v>0.1735616616444124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04801419471165847</v>
+        <v>0.03070210847595824</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4613627773.774164</v>
+        <v>5253046551.435802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1224912534660288</v>
+        <v>0.1403290784106889</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02810644682350973</v>
+        <v>0.03793516410184166</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2560769385.733234</v>
+        <v>3023428226.852138</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1062258988472142</v>
+        <v>0.08884765628223798</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04487708233760459</v>
+        <v>0.0481847451757536</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2306643495.670704</v>
+        <v>2819799715.031297</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1367708955871855</v>
+        <v>0.09375583760484955</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04564779705228692</v>
+        <v>0.0391988585162841</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2109345150.972787</v>
+        <v>2014226846.375262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08104612848231509</v>
+        <v>0.07894570040994882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04617526245487037</v>
+        <v>0.04354258062790425</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3021327442.967694</v>
+        <v>2889032864.619328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1340903993030923</v>
+        <v>0.2209027423955628</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02361551819211074</v>
+        <v>0.02599296645252876</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1680248488.49698</v>
+        <v>1861131180.910769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1483093341937921</v>
+        <v>0.1960055439984424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03507804701340349</v>
+        <v>0.0241796387508115</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3989213080.270956</v>
+        <v>5376735825.679531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1652076760712937</v>
+        <v>0.1844068082549132</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03890777340571478</v>
+        <v>0.05209790549641936</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3012040687.725369</v>
+        <v>3456098680.705295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1439733989889042</v>
+        <v>0.1732414678059225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04168254608580158</v>
+        <v>0.03414843655823591</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2859793297.960288</v>
+        <v>2655761072.8705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1876954542885425</v>
+        <v>0.1797400189102562</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04269253250970302</v>
+        <v>0.04952990705769759</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4033337849.252528</v>
+        <v>4734194987.21407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0772724484420667</v>
+        <v>0.07032966815857619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03138283468334596</v>
+        <v>0.02766884852143401</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3096675108.581503</v>
+        <v>3183885533.199395</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862383255126997</v>
+        <v>0.170456649267569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02976475822702887</v>
+        <v>0.04046122522339747</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1735191462.067973</v>
+        <v>1400211858.218743</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08996894183394444</v>
+        <v>0.09464493329421081</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03174472026461989</v>
+        <v>0.03683228408131885</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1899579780.799054</v>
+        <v>1804021276.825969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08042851615877025</v>
+        <v>0.1039156958302263</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04868877392689666</v>
+        <v>0.03632674388413328</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3617491091.352001</v>
+        <v>4017761102.67694</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1246659500031508</v>
+        <v>0.1522230800130904</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03288089814789526</v>
+        <v>0.03821204580517497</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3110517693.225522</v>
+        <v>2897638475.905052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1410130622966064</v>
+        <v>0.1388502328139876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02199463215936667</v>
+        <v>0.02194954796136831</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>987756824.1385212</v>
+        <v>991511177.7856537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608742441562275</v>
+        <v>0.1305904768297749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02182326307328115</v>
+        <v>0.01966063354934838</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598725645.431932</v>
+        <v>2303649237.953509</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1347107596464198</v>
+        <v>0.1328974690869867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02706704044435019</v>
+        <v>0.01951988237585379</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2480332612.691645</v>
+        <v>1917225470.179458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09795595024372833</v>
+        <v>0.07018843170081623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04300209640265383</v>
+        <v>0.03575659738750466</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3192635569.987509</v>
+        <v>2539891011.390562</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1398273583764121</v>
+        <v>0.1211270662327581</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05648990435270577</v>
+        <v>0.05229416449411431</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1437755697.050095</v>
+        <v>1477065858.601051</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1662003660947126</v>
+        <v>0.1832143320331958</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04013009561576644</v>
+        <v>0.04501453816976785</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4146404669.367431</v>
+        <v>3665677691.033981</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1402130428958524</v>
+        <v>0.1412401581712328</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02667598425812581</v>
+        <v>0.02450751963034169</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1050946690.828497</v>
+        <v>1239603694.671842</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09892281768130166</v>
+        <v>0.1009205304040534</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02365429831692997</v>
+        <v>0.02067061740489612</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>884601557.6095418</v>
+        <v>1023240857.034015</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1130802329404111</v>
+        <v>0.08992674243331229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03118652660722744</v>
+        <v>0.02827567325621524</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4176350078.713709</v>
+        <v>3648000850.761311</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1018908635519961</v>
+        <v>0.1041714183255576</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02482943565082314</v>
+        <v>0.01815948041174028</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3519237236.333565</v>
+        <v>2440703001.438441</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1468274796617039</v>
+        <v>0.0926780948282829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03790414431681987</v>
+        <v>0.04175315343566065</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3834217377.895068</v>
+        <v>3997592384.753933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1247876020772644</v>
+        <v>0.1205970081740817</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03109013751062635</v>
+        <v>0.04185686424399106</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2384051515.447584</v>
+        <v>2027071489.275393</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1111102331043782</v>
+        <v>0.08715162454779599</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02460562452722383</v>
+        <v>0.02796296086495915</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1213585259.851178</v>
+        <v>1474609332.972263</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09784455642604944</v>
+        <v>0.09710966147252886</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0454478235314718</v>
+        <v>0.04305625257147587</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1248531729.749255</v>
+        <v>1387179644.270719</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08905012543037683</v>
+        <v>0.09360614965202808</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03130281899411427</v>
+        <v>0.03812992247887759</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2263587640.734699</v>
+        <v>2627576937.748078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1780098577182307</v>
+        <v>0.1552217661983285</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05373265280583397</v>
+        <v>0.0478911085145968</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>956442156.9945284</v>
+        <v>1575183134.917993</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1197037628151604</v>
+        <v>0.101573140284904</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01992279057736637</v>
+        <v>0.02259802417110599</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1066559113.587016</v>
+        <v>1345155729.860967</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07299653029871161</v>
+        <v>0.1130243623488087</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04514735255396155</v>
+        <v>0.03063250803329905</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2422782246.024731</v>
+        <v>2971632448.135795</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1736039584147322</v>
+        <v>0.1747568364492446</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0235816790662456</v>
+        <v>0.02152079633794999</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2069396536.043667</v>
+        <v>2820831013.700536</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1003401106792086</v>
+        <v>0.0839003683158049</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0410170995826511</v>
+        <v>0.0268860272692837</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1653954788.347695</v>
+        <v>1527215187.230342</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1070150085342685</v>
+        <v>0.08567783880338962</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03953129877672211</v>
+        <v>0.02990243170787761</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1744676955.184047</v>
+        <v>1747721296.672385</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1340026107819113</v>
+        <v>0.1452825128939992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03121006086939238</v>
+        <v>0.02898229460274365</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439147226.13411</v>
+        <v>1268295796.362435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.147653048829764</v>
+        <v>0.1324144716368706</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04243138192582235</v>
+        <v>0.04228249761855392</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1797119029.07742</v>
+        <v>2115456563.74287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1100822893287547</v>
+        <v>0.1402120527458796</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03478771603268131</v>
+        <v>0.04253851842749769</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4018607978.156357</v>
+        <v>4293783998.157403</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09076885959665017</v>
+        <v>0.1081082333501343</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03284067413737338</v>
+        <v>0.03923242423293334</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1957362352.13163</v>
+        <v>2243970629.351527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1402380389688107</v>
+        <v>0.1607161218072596</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01718465911686617</v>
+        <v>0.01878293419016516</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1786322701.182272</v>
+        <v>2254563379.179005</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08358237099523989</v>
+        <v>0.0934325036521142</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02495777625785353</v>
+        <v>0.02933978126483328</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1724181874.493629</v>
+        <v>2299117602.427071</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1752648089812321</v>
+        <v>0.1455472889643892</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04603032943092422</v>
+        <v>0.04525753389139037</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4075805821.785469</v>
+        <v>4973213457.476044</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1170867712950298</v>
+        <v>0.1353940609051939</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04900980522912687</v>
+        <v>0.0508861036669481</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3530902448.116749</v>
+        <v>4932703630.931631</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1848819651000641</v>
+        <v>0.1661641946071007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04138168782110063</v>
+        <v>0.05267567447078279</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4024829097.330479</v>
+        <v>3752001507.299583</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08079797889221406</v>
+        <v>0.07118898175226096</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02705554808898944</v>
+        <v>0.03264398705125873</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1458081297.308522</v>
+        <v>1803823202.104523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1538914980144295</v>
+        <v>0.1873331754181959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03885870240392571</v>
+        <v>0.02873602314570869</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3677489783.984897</v>
+        <v>3547796252.709383</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1156069790184794</v>
+        <v>0.165362804511026</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03863517630162858</v>
+        <v>0.04011141429301939</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1139061343.297056</v>
+        <v>1224982374.015996</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1389713259687483</v>
+        <v>0.1694048375666839</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04656475905416382</v>
+        <v>0.04604992975813009</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4075995390.272896</v>
+        <v>4764981766.001749</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1070632414480315</v>
+        <v>0.118168831379673</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0547927292460778</v>
+        <v>0.04371186595692239</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2368646299.87683</v>
+        <v>3596784523.99033</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1535290013929597</v>
+        <v>0.1300587049937226</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02197229632287926</v>
+        <v>0.02201201718678619</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3123796196.022979</v>
+        <v>4497870789.716685</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1671017230115051</v>
+        <v>0.1486212227969016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05292830948998835</v>
+        <v>0.03458024203963867</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3659767116.117038</v>
+        <v>4906039308.629635</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1557051593205844</v>
+        <v>0.2033802149150297</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02272723486281809</v>
+        <v>0.02103275156206728</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1457372463.748252</v>
+        <v>1835612344.106875</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1447661520059396</v>
+        <v>0.1113500593343928</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05215790207510271</v>
+        <v>0.05150648164220118</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4322681264.630692</v>
+        <v>3957898071.978097</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1559190921310016</v>
+        <v>0.1459263013006897</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0241032300645062</v>
+        <v>0.02381040646796066</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1309221766.854706</v>
+        <v>1258585414.393959</v>
       </c>
       <c r="F58" t="n">
-        <v>0.132674472934222</v>
+        <v>0.1787616042909232</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02800222259700576</v>
+        <v>0.0312848542378656</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4255705555.251137</v>
+        <v>4465302343.86672</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1249498028899801</v>
+        <v>0.1254129593259935</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04730442148197392</v>
+        <v>0.04040523805570771</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3512040396.676556</v>
+        <v>3387386218.576713</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1982131522721503</v>
+        <v>0.1358977576393729</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0286767059893044</v>
+        <v>0.02819194124268463</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2861870607.04845</v>
+        <v>2603119044.63722</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1129496761567423</v>
+        <v>0.1805895546680178</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02617820545601458</v>
+        <v>0.030626402034006</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2097965420.237547</v>
+        <v>1283496589.654124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1603534020168542</v>
+        <v>0.175990016930715</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03263927695970135</v>
+        <v>0.04368020451476171</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3709274610.124949</v>
+        <v>3889279685.072896</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07815341491921929</v>
+        <v>0.06742983665935454</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04027767533892634</v>
+        <v>0.0383450250127224</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4629733925.687527</v>
+        <v>5061649253.982369</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1416064472668599</v>
+        <v>0.1446173031653268</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02197693243933415</v>
+        <v>0.03164565153380515</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3975272186.324164</v>
+        <v>3887606105.395566</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1139129034829471</v>
+        <v>0.1712418866977567</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02431066112534265</v>
+        <v>0.0255519799888474</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3923063194.107023</v>
+        <v>5035589051.539191</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1524585427877475</v>
+        <v>0.1328183930000868</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0444074291652444</v>
+        <v>0.0323901247245854</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2541058838.740693</v>
+        <v>2510449724.526588</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0753438479871435</v>
+        <v>0.08277049194887301</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0320975752952836</v>
+        <v>0.05056239269089762</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4825943661.309402</v>
+        <v>4425535692.310413</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1528184003650633</v>
+        <v>0.1107556737111937</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03287103428840003</v>
+        <v>0.04552467937987187</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2258963427.345607</v>
+        <v>1871954766.495813</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1661100891139817</v>
+        <v>0.1244085710816544</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04121954095950965</v>
+        <v>0.05477406887428508</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3459431844.860303</v>
+        <v>2426253927.785111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1031658929593941</v>
+        <v>0.06651366814113469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03037432437123518</v>
+        <v>0.0344613533488058</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4419031292.250482</v>
+        <v>4712805990.55081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1309662198573035</v>
+        <v>0.149670511885737</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02979430536381451</v>
+        <v>0.03231203463335615</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2047495309.570165</v>
+        <v>1877223229.260772</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08166146650721144</v>
+        <v>0.1049876995733663</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04019155208077401</v>
+        <v>0.03243477224248539</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2351587271.117476</v>
+        <v>2953697783.441078</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09778259966591654</v>
+        <v>0.1016418618760354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0437979969805506</v>
+        <v>0.03306804124703751</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3172614216.216378</v>
+        <v>2649779000.472071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1276862128214482</v>
+        <v>0.1683338636778257</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02833074410547954</v>
+        <v>0.03252989873148403</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2398970322.222675</v>
+        <v>1720226524.175863</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1214034333564261</v>
+        <v>0.1297481599359247</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02655917080379693</v>
+        <v>0.03530807553558553</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4625659353.317475</v>
+        <v>4757979815.709674</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09230331300269561</v>
+        <v>0.0901848213310478</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02663528012153034</v>
+        <v>0.02544397579954994</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1559725475.017128</v>
+        <v>2086651339.186993</v>
       </c>
       <c r="F77" t="n">
-        <v>0.137417128651327</v>
+        <v>0.1839698225488253</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02410520777242874</v>
+        <v>0.03125661755669812</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4376649968.793774</v>
+        <v>4619116396.622225</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09841144782425514</v>
+        <v>0.1049613514759915</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05138512755838479</v>
+        <v>0.03576022775761981</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1416202250.052598</v>
+        <v>1532323121.554001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619467516093667</v>
+        <v>0.1291535332101165</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03079589576462448</v>
+        <v>0.03038641787503751</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4136835183.74816</v>
+        <v>3416386310.980423</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07408249870126955</v>
+        <v>0.08142603826245787</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02690365329426659</v>
+        <v>0.02739060298571411</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3754558282.82956</v>
+        <v>4233423094.655238</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09005423401012662</v>
+        <v>0.1241121384200402</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02516456329430081</v>
+        <v>0.02563255023493366</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5089956285.560956</v>
+        <v>4084017467.283056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1403864756059453</v>
+        <v>0.1917810909496247</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0265160608296749</v>
+        <v>0.01905423645719651</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2416440403.088939</v>
+        <v>2161795149.286015</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1484156097400284</v>
+        <v>0.1279535452804365</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0323181105696228</v>
+        <v>0.02895286265300532</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1828259881.487985</v>
+        <v>1653631655.731623</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1206365263486383</v>
+        <v>0.08756300285563826</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04289043216307218</v>
+        <v>0.03566452999587764</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3500709106.272331</v>
+        <v>2537617270.868465</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114501694557997</v>
+        <v>0.1158897348444901</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0403367632345519</v>
+        <v>0.05233984268124754</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1708985210.300556</v>
+        <v>2477195858.662309</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1424596184194199</v>
+        <v>0.1201990425965837</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0258292028233398</v>
+        <v>0.01948338105366475</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>914165281.0314517</v>
+        <v>1118782367.765439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1538169124180233</v>
+        <v>0.1346002566491962</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04171789956017451</v>
+        <v>0.03259148367409688</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3161659338.69828</v>
+        <v>2937787510.559328</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1227531181766333</v>
+        <v>0.1365154045935549</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03990257433899205</v>
+        <v>0.02897350360991198</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2763228886.353945</v>
+        <v>3028298972.417848</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09784859714076445</v>
+        <v>0.1351271153192803</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03829595391338268</v>
+        <v>0.04096897032279075</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732452552.638317</v>
+        <v>1438766416.130629</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09386888509442956</v>
+        <v>0.1265980793535934</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03652954740157449</v>
+        <v>0.050262540934728</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2084389271.770476</v>
+        <v>1621508764.265425</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121316526658778</v>
+        <v>0.1183399020666188</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0529596500218518</v>
+        <v>0.04274724917108976</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2945318424.669798</v>
+        <v>2820389317.541811</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06992454070026179</v>
+        <v>0.0757292732102393</v>
       </c>
       <c r="G92" t="n">
-        <v>0.034677484211226</v>
+        <v>0.03056538761883312</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3390819251.785903</v>
+        <v>4048969748.309473</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1196459743519755</v>
+        <v>0.1273413739440521</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04145768031817669</v>
+        <v>0.03327190296886694</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1535860998.719965</v>
+        <v>1631965321.942589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1343163020134197</v>
+        <v>0.1256283669369525</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04256604900940726</v>
+        <v>0.02612083284398025</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2711736511.371414</v>
+        <v>2467436156.749122</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08917847817895157</v>
+        <v>0.1205025725988428</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04481916691533275</v>
+        <v>0.04140020519225053</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1701412638.317687</v>
+        <v>2374151674.854639</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1207831192193638</v>
+        <v>0.1238538917445443</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04562584889729555</v>
+        <v>0.0405629280635711</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3795760846.508119</v>
+        <v>3798231794.407959</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1683240750298781</v>
+        <v>0.172142293176546</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02546412291792062</v>
+        <v>0.02891470586984239</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3264081543.906341</v>
+        <v>3670951257.420781</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126261697017964</v>
+        <v>0.1040570559432527</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02060919419979129</v>
+        <v>0.02914804850372443</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3171726478.48646</v>
+        <v>2863647778.274432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11072160726255</v>
+        <v>0.147372808889698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02729309449642726</v>
+        <v>0.0268973972413095</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3390334541.876828</v>
+        <v>3185089574.028463</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1194725338930375</v>
+        <v>0.1676210656069003</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02137633869362301</v>
+        <v>0.02357989842684297</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2828525879.048937</v>
+        <v>2971335581.753804</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1925513489910518</v>
+        <v>0.188374472185306</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04843500176234133</v>
+        <v>0.04337901756398163</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2285079495.321163</v>
+        <v>2216547727.501623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1073624869549358</v>
+        <v>0.0873114179839579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0387448591147337</v>
+        <v>0.04372728578190541</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2135975352.592317</v>
+        <v>2141600506.702353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1735616616444124</v>
+        <v>0.1649882590918715</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03070210847595824</v>
+        <v>0.04316690119994562</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5253046551.435802</v>
+        <v>4930802733.780699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1403290784106889</v>
+        <v>0.1445231466226091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03793516410184166</v>
+        <v>0.03034764819320891</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3023428226.852138</v>
+        <v>4107298496.740565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08884765628223798</v>
+        <v>0.08280707051817804</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0481847451757536</v>
+        <v>0.03752338118935846</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2819799715.031297</v>
+        <v>2586398074.156979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09375583760484955</v>
+        <v>0.1456431607802691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0391988585162841</v>
+        <v>0.04661725705679547</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2014226846.375262</v>
+        <v>2234008995.306871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07894570040994882</v>
+        <v>0.08204458628336261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04354258062790425</v>
+        <v>0.03304703135075017</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2889032864.619328</v>
+        <v>3100745328.624947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2209027423955628</v>
+        <v>0.2113829495831748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02599296645252876</v>
+        <v>0.03134241234219896</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>116.4536682090436</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1861131180.910769</v>
+        <v>1792391663.953204</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1960055439984424</v>
+        <v>0.1216882184214827</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0241796387508115</v>
+        <v>0.03577444300227406</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5376735825.679531</v>
+        <v>3826653422.814662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1844068082549132</v>
+        <v>0.1472522752750687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05209790549641936</v>
+        <v>0.04073002229687982</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>209.5857467303171</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3456098680.705295</v>
+        <v>4177378757.701042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1732414678059225</v>
+        <v>0.1414223883364756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03414843655823591</v>
+        <v>0.03443302472741756</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230.4655270460839</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2655761072.8705</v>
+        <v>3196128981.432388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1797400189102562</v>
+        <v>0.1688866133558053</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04952990705769759</v>
+        <v>0.04680271964971697</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4734194987.21407</v>
+        <v>4894212533.630613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07032966815857619</v>
+        <v>0.09014373174481168</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02766884852143401</v>
+        <v>0.02435024552853019</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>211.891268327547</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3183885533.199395</v>
+        <v>2963781836.067101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.170456649267569</v>
+        <v>0.1388672711437497</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04046122522339747</v>
+        <v>0.03352119438340121</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1400211858.218743</v>
+        <v>1449218676.736696</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09464493329421081</v>
+        <v>0.06619485588466893</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03683228408131885</v>
+        <v>0.03357893279381529</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1804021276.825969</v>
+        <v>2905703604.840606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1039156958302263</v>
+        <v>0.09072769914020616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03632674388413328</v>
+        <v>0.04604716062927949</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4017761102.67694</v>
+        <v>4500916133.607476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1522230800130904</v>
+        <v>0.1399140479817494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03821204580517497</v>
+        <v>0.04397228397889783</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2897638475.905052</v>
+        <v>2857174445.815749</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1388502328139876</v>
+        <v>0.177048992158951</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02194954796136831</v>
+        <v>0.02204680820315955</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>991511177.7856537</v>
+        <v>1338156418.928445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1305904768297749</v>
+        <v>0.1839996871017271</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01966063354934838</v>
+        <v>0.02063079425247396</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2303649237.953509</v>
+        <v>2184568498.120408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1328974690869867</v>
+        <v>0.09858689215753359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01951988237585379</v>
+        <v>0.02247523523948044</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1917225470.179458</v>
+        <v>2432919423.726668</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07018843170081623</v>
+        <v>0.0933366408378884</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03575659738750466</v>
+        <v>0.04261036588589533</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2539891011.390562</v>
+        <v>2694610032.854966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1211270662327581</v>
+        <v>0.1156414937992571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05229416449411431</v>
+        <v>0.04995929272002131</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1477065858.601051</v>
+        <v>1290498639.331876</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1832143320331958</v>
+        <v>0.1790649376031518</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04501453816976785</v>
+        <v>0.05333533356716388</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3665677691.033981</v>
+        <v>4111322003.081628</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1412401581712328</v>
+        <v>0.1427882720552989</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02450751963034169</v>
+        <v>0.02295835339632164</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1239603694.671842</v>
+        <v>1101374437.853148</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1009205304040534</v>
+        <v>0.1010163853842244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02067061740489612</v>
+        <v>0.0236710917138715</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1023240857.034015</v>
+        <v>1263385370.977253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08992674243331229</v>
+        <v>0.08656940281300983</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02827567325621524</v>
+        <v>0.02783353023849021</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3648000850.761311</v>
+        <v>3742303749.76603</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1041714183255576</v>
+        <v>0.1492025530773459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01815948041174028</v>
+        <v>0.01985412744784155</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>30</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2440703001.438441</v>
+        <v>2744903690.662395</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0926780948282829</v>
+        <v>0.150985390094122</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04175315343566065</v>
+        <v>0.03173831693665879</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3997592384.753933</v>
+        <v>5154728294.75008</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1205970081740817</v>
+        <v>0.1104119225240372</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04185686424399106</v>
+        <v>0.04437750253791332</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>30</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.821588131671</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2027071489.275393</v>
+        <v>1671163421.807608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08715162454779599</v>
+        <v>0.1360676446626685</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02796296086495915</v>
+        <v>0.03287957976745114</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1474609332.972263</v>
+        <v>1267154981.080863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09710966147252886</v>
+        <v>0.1062967519965935</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04305625257147587</v>
+        <v>0.03803922296817299</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1387179644.270719</v>
+        <v>1695280826.508133</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09360614965202808</v>
+        <v>0.1122819355470397</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03812992247887759</v>
+        <v>0.02568506780153194</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2627576937.748078</v>
+        <v>3078863563.357452</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1552217661983285</v>
+        <v>0.2016781796711729</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0478911085145968</v>
+        <v>0.0406441953348834</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1575183134.917993</v>
+        <v>1443445142.778074</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101573140284904</v>
+        <v>0.08466173079985437</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02259802417110599</v>
+        <v>0.02238149027157254</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345155729.860967</v>
+        <v>1320206110.668418</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1130243623488087</v>
+        <v>0.0906222299754061</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03063250803329905</v>
+        <v>0.03958256026951584</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2971632448.135795</v>
+        <v>1961060369.047524</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1747568364492446</v>
+        <v>0.1305380850045466</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02152079633794999</v>
+        <v>0.02882850552819192</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2820831013.700536</v>
+        <v>2389395694.565598</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0839003683158049</v>
+        <v>0.112140150766845</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0268860272692837</v>
+        <v>0.03086349617281027</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1527215187.230342</v>
+        <v>2018917462.927264</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08567783880338962</v>
+        <v>0.07791808367231366</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02990243170787761</v>
+        <v>0.03854497599568022</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1747721296.672385</v>
+        <v>1606625817.47512</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1452825128939992</v>
+        <v>0.1195695893168158</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02898229460274365</v>
+        <v>0.02328482854484236</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268295796.362435</v>
+        <v>1717030192.845981</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1324144716368706</v>
+        <v>0.1118954283869788</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04228249761855392</v>
+        <v>0.041605528874208</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2115456563.74287</v>
+        <v>2451335707.771523</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1402120527458796</v>
+        <v>0.1648936561596337</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04253851842749769</v>
+        <v>0.04270414521701778</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4293783998.157403</v>
+        <v>2999769104.388758</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1081082333501343</v>
+        <v>0.0860147934269147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03923242423293334</v>
+        <v>0.03958790386965458</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29</v>
+      </c>
+      <c r="K42" t="n">
+        <v>113.2720977770919</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2243970629.351527</v>
+        <v>1888868397.289644</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1607161218072596</v>
+        <v>0.148819426943012</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01878293419016516</v>
+        <v>0.02433623517474581</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2254563379.179005</v>
+        <v>2086598496.398484</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0934325036521142</v>
+        <v>0.07455640365392922</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02933978126483328</v>
+        <v>0.02917765445735072</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2299117602.427071</v>
+        <v>2126452875.379645</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1455472889643892</v>
+        <v>0.1346317846483608</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04525753389139037</v>
+        <v>0.03814636543782062</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4973213457.476044</v>
+        <v>4485562683.748196</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353940609051939</v>
+        <v>0.1269230135134593</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0508861036669481</v>
+        <v>0.04070185223941858</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.8454593251968</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4932703630.931631</v>
+        <v>3409255343.689009</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1661641946071007</v>
+        <v>0.1579044582497642</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05267567447078279</v>
+        <v>0.0454903549734869</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>30</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3752001507.299583</v>
+        <v>4080475637.044844</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07118898175226096</v>
+        <v>0.08848572746759543</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03264398705125873</v>
+        <v>0.02786090051870503</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29</v>
+      </c>
+      <c r="K48" t="n">
+        <v>209.7913756212193</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1803823202.104523</v>
+        <v>1389519011.471604</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1873331754181959</v>
+        <v>0.1491041242093945</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02873602314570869</v>
+        <v>0.03466098783503446</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3547796252.709383</v>
+        <v>3583273967.873684</v>
       </c>
       <c r="F50" t="n">
-        <v>0.165362804511026</v>
+        <v>0.129297721910159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04011141429301939</v>
+        <v>0.05157410000148197</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1224982374.015996</v>
+        <v>1321930963.087604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1694048375666839</v>
+        <v>0.1873347630266419</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04604992975813009</v>
+        <v>0.04157469858504621</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4764981766.001749</v>
+        <v>3719851818.563409</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118168831379673</v>
+        <v>0.139002848421879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04371186595692239</v>
+        <v>0.03920627862847135</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23</v>
+      </c>
+      <c r="J52" t="n">
+        <v>29</v>
+      </c>
+      <c r="K52" t="n">
+        <v>190.9892371085803</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3596784523.99033</v>
+        <v>2468853051.8239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1300587049937226</v>
+        <v>0.1512819434924369</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02201201718678619</v>
+        <v>0.0320184643510679</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4497870789.716685</v>
+        <v>3410103011.547051</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1486212227969016</v>
+        <v>0.1437740482194909</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03458024203963867</v>
+        <v>0.05150932473712053</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>30</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4906039308.629635</v>
+        <v>3638677131.075991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2033802149150297</v>
+        <v>0.1373240186065633</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02103275156206728</v>
+        <v>0.03095447198852252</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29</v>
+      </c>
+      <c r="K55" t="n">
+        <v>146.4440573868895</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1835612344.106875</v>
+        <v>1357282945.64062</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1113500593343928</v>
+        <v>0.1465231237343397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05150648164220118</v>
+        <v>0.05661453744481421</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3957898071.978097</v>
+        <v>3247356355.6451</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1459263013006897</v>
+        <v>0.1428185123161707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02381040646796066</v>
+        <v>0.02759249198442885</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1258585414.393959</v>
+        <v>1242407035.441343</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787616042909232</v>
+        <v>0.1655918248806541</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0312848542378656</v>
+        <v>0.03130362161759159</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4465302343.86672</v>
+        <v>5216039593.399195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1254129593259935</v>
+        <v>0.1011616677343263</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04040523805570771</v>
+        <v>0.03743415938092131</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.7740724796795</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3387386218.576713</v>
+        <v>3432805903.095623</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1358977576393729</v>
+        <v>0.1779325723005387</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02819194124268463</v>
+        <v>0.03129423905900047</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2603119044.63722</v>
+        <v>3158860764.811864</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1805895546680178</v>
+        <v>0.170554338210394</v>
       </c>
       <c r="G61" t="n">
-        <v>0.030626402034006</v>
+        <v>0.0218069958202269</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1283496589.654124</v>
+        <v>1802442935.720703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.175990016930715</v>
+        <v>0.1639980092420542</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04368020451476171</v>
+        <v>0.03651685955560047</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3889279685.072896</v>
+        <v>4014561987.949324</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06742983665935454</v>
+        <v>0.07939705602769442</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0383450250127224</v>
+        <v>0.03527662533915901</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5061649253.982369</v>
+        <v>4342730915.323825</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1446173031653268</v>
+        <v>0.1860126370149943</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03164565153380515</v>
+        <v>0.02888332353006987</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.0198399239144</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3887606105.395566</v>
+        <v>3804111899.627381</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1712418866977567</v>
+        <v>0.1603030853467236</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0255519799888474</v>
+        <v>0.02744570299009216</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29</v>
+      </c>
+      <c r="K65" t="n">
+        <v>186.6802399868974</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5035589051.539191</v>
+        <v>5224695358.827268</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1328183930000868</v>
+        <v>0.1458516270613969</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0323901247245854</v>
+        <v>0.04198300072100185</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.477292510776</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2510449724.526588</v>
+        <v>2773761733.876351</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08277049194887301</v>
+        <v>0.08799739599093297</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05056239269089762</v>
+        <v>0.0430231797732275</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4425535692.310413</v>
+        <v>4987421659.720719</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1107556737111937</v>
+        <v>0.154655216273193</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04552467937987187</v>
+        <v>0.05079511139303459</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>29</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.0066689571595</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1871954766.495813</v>
+        <v>2254645635.73172</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1244085710816544</v>
+        <v>0.1316218803140583</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05477406887428508</v>
+        <v>0.05405548659992596</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2426253927.785111</v>
+        <v>2760861916.361895</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06651366814113469</v>
+        <v>0.08263031623554949</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0344613533488058</v>
+        <v>0.03393386410239087</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4712805990.55081</v>
+        <v>4084518093.464553</v>
       </c>
       <c r="F71" t="n">
-        <v>0.149670511885737</v>
+        <v>0.1328144950716262</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03231203463335615</v>
+        <v>0.02773015902264721</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24</v>
+      </c>
+      <c r="J71" t="n">
+        <v>30</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.2912089749942</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1877223229.260772</v>
+        <v>1577148478.265352</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1049876995733663</v>
+        <v>0.1045065026252908</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03243477224248539</v>
+        <v>0.05324247346057087</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2953697783.441078</v>
+        <v>3400808514.83844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1016418618760354</v>
+        <v>0.1086365987701415</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03306804124703751</v>
+        <v>0.04458344135538175</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2649779000.472071</v>
+        <v>2525354946.111523</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1683338636778257</v>
+        <v>0.1823846704033943</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03252989873148403</v>
+        <v>0.03071665163655154</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29</v>
+      </c>
+      <c r="K74" t="n">
+        <v>81.36756353854609</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1720226524.175863</v>
+        <v>1892190688.965083</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1297481599359247</v>
+        <v>0.1261941311636082</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03530807553558553</v>
+        <v>0.02912897240804712</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4757979815.709674</v>
+        <v>4168331995.59643</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0901848213310478</v>
+        <v>0.08890087281342723</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02544397579954994</v>
+        <v>0.03349495216767839</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>29</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.5469648375995</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2086651339.186993</v>
+        <v>1862435986.475439</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1839698225488253</v>
+        <v>0.1367537522643556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03125661755669812</v>
+        <v>0.01919456867225395</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4619116396.622225</v>
+        <v>3273844947.874026</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1049613514759915</v>
+        <v>0.1287049610977897</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03576022775761981</v>
+        <v>0.04156183030815955</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>28</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1532323121.554001</v>
+        <v>1772836395.670739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1291535332101165</v>
+        <v>0.1172739637393978</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03038641787503751</v>
+        <v>0.02606374203240222</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3416386310.980423</v>
+        <v>3404513855.934215</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08142603826245787</v>
+        <v>0.09725708445421027</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02739060298571411</v>
+        <v>0.02567622561025434</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>30</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4233423094.655238</v>
+        <v>5085869431.126385</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1241121384200402</v>
+        <v>0.08848725444549625</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02563255023493366</v>
+        <v>0.02851567562989999</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>30</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4084017467.283056</v>
+        <v>5271462618.442076</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1917810909496247</v>
+        <v>0.1515358510601918</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01905423645719651</v>
+        <v>0.01858143035803258</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>30</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2161795149.286015</v>
+        <v>2476410832.443615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1279535452804365</v>
+        <v>0.1084620439489949</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02895286265300532</v>
+        <v>0.03566244552151918</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1653631655.731623</v>
+        <v>2216940632.097785</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08756300285563826</v>
+        <v>0.1205113290761188</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03566452999587764</v>
+        <v>0.04752933367863486</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2537617270.868465</v>
+        <v>2909245862.513997</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1158897348444901</v>
+        <v>0.1764616544158722</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05233984268124754</v>
+        <v>0.04102157638070399</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2477195858.662309</v>
+        <v>2121724248.402969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1201990425965837</v>
+        <v>0.1345932570598836</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01948338105366475</v>
+        <v>0.01854423112517849</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1118782367.765439</v>
+        <v>912080721.3850287</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1346002566491962</v>
+        <v>0.1280494597825942</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03259148367409688</v>
+        <v>0.04152622893178005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2937787510.559328</v>
+        <v>3395551299.597118</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1365154045935549</v>
+        <v>0.1093285066120422</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02897350360991198</v>
+        <v>0.024102975308103</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3028298972.417848</v>
+        <v>3346542984.802733</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1351271153192803</v>
+        <v>0.155633366855577</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04096897032279075</v>
+        <v>0.03757592993835264</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1438766416.130629</v>
+        <v>1436922724.091293</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1265980793535934</v>
+        <v>0.1269502477801098</v>
       </c>
       <c r="G90" t="n">
-        <v>0.050262540934728</v>
+        <v>0.0427181382008561</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1621508764.265425</v>
+        <v>2010424654.731247</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1183399020666188</v>
+        <v>0.1376702717665767</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04274724917108976</v>
+        <v>0.04318014607532394</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2820389317.541811</v>
+        <v>2454451575.910534</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0757292732102393</v>
+        <v>0.07998764045534403</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03056538761883312</v>
+        <v>0.03351028364817239</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4048969748.309473</v>
+        <v>4925281679.475022</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1273413739440521</v>
+        <v>0.09120797707065964</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03327190296886694</v>
+        <v>0.0429970326697042</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>29</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.1559670514214</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1631965321.942589</v>
+        <v>1945805686.721299</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1256283669369525</v>
+        <v>0.1192601906830218</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02612083284398025</v>
+        <v>0.03629798915475081</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2467436156.749122</v>
+        <v>2785277107.606042</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1205025725988428</v>
+        <v>0.1264456563456594</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04140020519225053</v>
+        <v>0.03452392119365132</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2374151674.854639</v>
+        <v>2111653159.236829</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238538917445443</v>
+        <v>0.08686830338260883</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0405629280635711</v>
+        <v>0.04426241791746904</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3798231794.407959</v>
+        <v>5229139820.416372</v>
       </c>
       <c r="F97" t="n">
-        <v>0.172142293176546</v>
+        <v>0.1769920189627516</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02891470586984239</v>
+        <v>0.02352092894270616</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>30</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3670951257.420781</v>
+        <v>2480862065.267875</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1040570559432527</v>
+        <v>0.09078438607591971</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02914804850372443</v>
+        <v>0.02129297691045753</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2863647778.274432</v>
+        <v>2730509487.545547</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147372808889698</v>
+        <v>0.1308492603927795</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0268973972413095</v>
+        <v>0.02993686850512857</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3185089574.028463</v>
+        <v>3029989216.439091</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1676210656069003</v>
+        <v>0.1113028877363259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02357989842684297</v>
+        <v>0.02558030479457746</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>29</v>
+      </c>
+      <c r="K100" t="n">
+        <v>109.9087271985816</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2971335581.753804</v>
+        <v>2507795455.824368</v>
       </c>
       <c r="F101" t="n">
-        <v>0.188374472185306</v>
+        <v>0.1611904853167442</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04337901756398163</v>
+        <v>0.04221002696661229</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
